--- a/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i73,96_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i73,96_Fremdlüfter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>Sequenz</t>
   </si>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -976,9 +976,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,9 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,6 +1098,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,10 +1394,10 @@
   <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1424,125 +1430,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="83" t="s">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1552,8 +1558,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="82"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="15">
         <v>0</v>
       </c>
@@ -1562,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15" t="s">
         <v>99</v>
       </c>
@@ -1573,21 +1579,21 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="39" t="s">
         <v>100</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="41"/>
+      <c r="U4" s="40"/>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="H5" s="22">
         <v>1</v>
       </c>
@@ -1596,8 +1602,8 @@
         <v>5</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="58"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="22" t="s">
         <v>102</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>103</v>
       </c>
       <c r="T5" s="22"/>
-      <c r="U5" s="42"/>
+      <c r="U5" s="41"/>
     </row>
     <row r="6" spans="1:21" ht="72.5">
       <c r="A6" s="4">
@@ -1627,7 +1633,7 @@
       <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G6" s="3"/>
@@ -1644,7 +1650,7 @@
       <c r="L6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="57" t="s">
         <v>117</v>
       </c>
       <c r="N6" s="22" t="s">
@@ -1656,13 +1662,13 @@
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T6" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1679,19 +1685,19 @@
       <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="60"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -1699,23 +1705,25 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="27"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1">
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="91">
+        <v>3</v>
+      </c>
       <c r="C8" s="19">
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="66" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="20">
@@ -1726,7 +1734,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="60"/>
+      <c r="M8" s="58"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -1734,7 +1742,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="27"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="29">
       <c r="A9" s="23"/>
@@ -1756,7 +1764,7 @@
       <c r="L9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="59" t="s">
         <v>118</v>
       </c>
       <c r="N9" s="22"/>
@@ -1766,7 +1774,7 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
-      <c r="U9" s="27"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="23"/>
@@ -1780,7 +1788,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="60"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -1788,7 +1796,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="27"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1">
       <c r="A11" s="23"/>
@@ -1802,7 +1810,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="60"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -1810,7 +1818,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="27"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="1:21" ht="40" customHeight="1">
       <c r="A12" s="4">
@@ -1828,7 +1836,7 @@
       <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="3"/>
@@ -1839,13 +1847,13 @@
         <v>73</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="56" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="22" t="s">
@@ -1857,13 +1865,13 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
-      <c r="S12" s="26" t="s">
+      <c r="S12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T12" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1880,19 +1888,19 @@
       <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="58"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -1900,34 +1908,36 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
-      <c r="U13" s="27"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="45">
-        <v>1</v>
-      </c>
-      <c r="B14" s="24"/>
+      <c r="A14" s="43">
+        <v>1</v>
+      </c>
+      <c r="B14" s="92">
+        <v>3</v>
+      </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <v>23255</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="58"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -1935,13 +1945,15 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="27"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="94">
+        <v>3</v>
+      </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
@@ -1951,7 +1963,7 @@
       <c r="E15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="68" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="14">
@@ -1960,9 +1972,9 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="58"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -1970,7 +1982,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
-      <c r="U15" s="27"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="1:21" ht="72.5">
       <c r="A16" s="23"/>
@@ -1986,13 +1998,13 @@
         <v>74</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="58"/>
+      <c r="M16" s="56"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -2000,7 +2012,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-      <c r="U16" s="27"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="23"/>
@@ -2012,9 +2024,9 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="58"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -2022,7 +2034,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
-      <c r="U17" s="27"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="23"/>
@@ -2034,9 +2046,9 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="58"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -2044,7 +2056,7 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
-      <c r="U18" s="27"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="A19" s="23"/>
@@ -2056,9 +2068,9 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="58"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -2066,7 +2078,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
-      <c r="U19" s="27"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="1:21" ht="72.5">
       <c r="A20" s="4">
@@ -2084,7 +2096,7 @@
       <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="3"/>
@@ -2098,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="22"/>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="58"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="22" t="s">
         <v>104</v>
       </c>
@@ -2111,42 +2123,42 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
-      <c r="S20" s="26" t="s">
+      <c r="S20" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T20" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1">
-      <c r="A21" s="49">
+      <c r="A21" s="47">
         <v>2</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="48">
         <v>2</v>
       </c>
-      <c r="C21" s="48">
-        <v>1</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="46">
+        <v>1</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="58"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -2154,34 +2166,36 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="27"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="45">
-        <v>1</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="43">
+        <v>1</v>
+      </c>
+      <c r="B22" s="93">
+        <v>3</v>
+      </c>
       <c r="C22" s="21">
         <v>1</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="45">
         <v>23255</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="58"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -2189,13 +2203,15 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
-      <c r="U22" s="27"/>
+      <c r="U22" s="26"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="92">
+        <v>3</v>
+      </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
@@ -2205,7 +2221,7 @@
       <c r="E23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="9">
@@ -2215,8 +2231,8 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="58"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -2224,13 +2240,15 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
-      <c r="U23" s="27"/>
+      <c r="U23" s="26"/>
     </row>
     <row r="24" spans="1:21" ht="29.5" thickBot="1">
       <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="91">
+        <v>3</v>
+      </c>
       <c r="C24" s="12">
         <v>8</v>
       </c>
@@ -2240,7 +2258,7 @@
       <c r="E24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="14">
@@ -2250,8 +2268,8 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="58"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -2259,7 +2277,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
-      <c r="U24" s="27"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="23"/>
@@ -2272,8 +2290,8 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="58"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -2281,7 +2299,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
-      <c r="U25" s="27"/>
+      <c r="U25" s="26"/>
     </row>
     <row r="26" spans="1:21" ht="29">
       <c r="A26" s="23"/>
@@ -2300,10 +2318,10 @@
         <v>14</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="58"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -2311,7 +2329,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
-      <c r="U26" s="27"/>
+      <c r="U26" s="26"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="23"/>
@@ -2324,8 +2342,8 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="58"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -2333,7 +2351,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="26"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="23"/>
@@ -2346,8 +2364,8 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="58"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -2355,7 +2373,7 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-      <c r="U28" s="27"/>
+      <c r="U28" s="26"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="23"/>
@@ -2368,8 +2386,8 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="58"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -2377,7 +2395,7 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1">
       <c r="A30" s="23"/>
@@ -2390,8 +2408,8 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="58"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -2399,7 +2417,7 @@
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
-      <c r="U30" s="27"/>
+      <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:21" ht="72.5">
       <c r="A31" s="4">
@@ -2417,7 +2435,7 @@
       <c r="E31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="3"/>
@@ -2431,10 +2449,10 @@
         <v>16</v>
       </c>
       <c r="K31" s="22"/>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="58"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="22" t="s">
         <v>104</v>
       </c>
@@ -2444,42 +2462,42 @@
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="26" t="s">
+      <c r="S31" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T31" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1">
-      <c r="A32" s="49">
+      <c r="A32" s="47">
         <v>2</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="48">
         <v>2</v>
       </c>
-      <c r="C32" s="48">
-        <v>1</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="48" t="s">
+      <c r="C32" s="46">
+        <v>1</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="51"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="58"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -2487,34 +2505,36 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
-      <c r="U32" s="27"/>
+      <c r="U32" s="26"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="45">
-        <v>1</v>
-      </c>
-      <c r="B33" s="24"/>
+      <c r="A33" s="43">
+        <v>1</v>
+      </c>
+      <c r="B33" s="93">
+        <v>3</v>
+      </c>
       <c r="C33" s="21">
         <v>1</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="45">
         <v>23255</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="58"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -2522,13 +2542,15 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
-      <c r="U33" s="27"/>
+      <c r="U33" s="26"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="92">
+        <v>3</v>
+      </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
@@ -2538,7 +2560,7 @@
       <c r="E34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="9">
@@ -2548,8 +2570,8 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="58"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="56"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -2557,13 +2579,15 @@
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
-      <c r="U34" s="27"/>
+      <c r="U34" s="26"/>
     </row>
     <row r="35" spans="1:21" ht="29.5" thickBot="1">
       <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="91">
+        <v>3</v>
+      </c>
       <c r="C35" s="12">
         <v>8</v>
       </c>
@@ -2573,7 +2597,7 @@
       <c r="E35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="14">
@@ -2583,8 +2607,8 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="58"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="56"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -2592,7 +2616,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
-      <c r="U35" s="27"/>
+      <c r="U35" s="26"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="23"/>
@@ -2605,8 +2629,8 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="58"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="56"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -2614,7 +2638,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
-      <c r="U36" s="27"/>
+      <c r="U36" s="26"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="23"/>
@@ -2627,8 +2651,8 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="58"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="56"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -2636,7 +2660,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
-      <c r="U37" s="27"/>
+      <c r="U37" s="26"/>
     </row>
     <row r="38" spans="1:21" ht="29">
       <c r="A38" s="23"/>
@@ -2655,10 +2679,10 @@
         <v>18</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="58"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -2666,7 +2690,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
-      <c r="U38" s="27"/>
+      <c r="U38" s="26"/>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="23"/>
@@ -2679,8 +2703,8 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="58"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="56"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -2688,7 +2712,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
-      <c r="U39" s="27"/>
+      <c r="U39" s="26"/>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="23"/>
@@ -2701,8 +2725,8 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="58"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="56"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -2710,7 +2734,7 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
-      <c r="U40" s="27"/>
+      <c r="U40" s="26"/>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="23"/>
@@ -2723,8 +2747,8 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="58"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="56"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -2732,7 +2756,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="27"/>
+      <c r="U41" s="26"/>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1">
       <c r="A42" s="23"/>
@@ -2745,8 +2769,8 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="58"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="56"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
@@ -2754,7 +2778,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
-      <c r="U42" s="27"/>
+      <c r="U42" s="26"/>
     </row>
     <row r="43" spans="1:21" ht="58">
       <c r="A43" s="4">
@@ -2772,7 +2796,7 @@
       <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="3"/>
@@ -2789,7 +2813,7 @@
       <c r="L43" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="60"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="22" t="s">
         <v>105</v>
       </c>
@@ -2803,73 +2827,75 @@
       <c r="R43" s="22">
         <v>1.8</v>
       </c>
-      <c r="S43" s="26" t="s">
+      <c r="S43" s="25" t="s">
         <v>106</v>
       </c>
       <c r="T43" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="U43" s="27"/>
+      <c r="U43" s="26"/>
     </row>
     <row r="44" spans="1:21" ht="44" thickBot="1">
-      <c r="A44" s="49">
+      <c r="A44" s="47">
         <v>2</v>
       </c>
-      <c r="B44" s="50">
+      <c r="B44" s="48">
         <v>2</v>
       </c>
-      <c r="C44" s="48">
-        <v>1</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="48" t="s">
+      <c r="C44" s="46">
+        <v>1</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="51"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="26" t="s">
+      <c r="M44" s="58"/>
+      <c r="N44" s="25" t="s">
         <v>108</v>
       </c>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
-      <c r="S44" s="26" t="s">
+      <c r="S44" s="25" t="s">
         <v>109</v>
       </c>
       <c r="T44" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="U44" s="27"/>
+      <c r="U44" s="26"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="24"/>
+      <c r="A45" s="43">
+        <v>1</v>
+      </c>
+      <c r="B45" s="92">
+        <v>3</v>
+      </c>
       <c r="C45" s="21">
         <v>1</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="45">
         <v>23255</v>
       </c>
       <c r="H45" s="22"/>
@@ -2877,7 +2903,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="60"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
@@ -2885,13 +2911,15 @@
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
-      <c r="U45" s="27"/>
+      <c r="U45" s="26"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="92">
+        <v>3</v>
+      </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -2901,7 +2929,7 @@
       <c r="E46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="72" t="s">
+      <c r="F46" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="9">
@@ -2912,7 +2940,7 @@
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
-      <c r="M46" s="60"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
@@ -2920,13 +2948,15 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="U46" s="27"/>
+      <c r="U46" s="26"/>
     </row>
     <row r="47" spans="1:21" ht="29.5" thickBot="1">
       <c r="A47" s="10">
         <v>3</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="94">
+        <v>3</v>
+      </c>
       <c r="C47" s="12">
         <v>8</v>
       </c>
@@ -2936,7 +2966,7 @@
       <c r="E47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="14">
@@ -2947,7 +2977,7 @@
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
-      <c r="M47" s="60"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
@@ -2955,7 +2985,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
-      <c r="U47" s="27"/>
+      <c r="U47" s="26"/>
     </row>
     <row r="48" spans="1:21" ht="15" thickBot="1">
       <c r="A48" s="23"/>
@@ -2977,7 +3007,7 @@
       <c r="L48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="60"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
@@ -2985,7 +3015,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
-      <c r="U48" s="27"/>
+      <c r="U48" s="26"/>
     </row>
     <row r="49" spans="1:21" ht="42.5" customHeight="1">
       <c r="A49" s="4">
@@ -3003,7 +3033,7 @@
       <c r="E49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G49" s="3"/>
@@ -3014,13 +3044,13 @@
         <v>73</v>
       </c>
       <c r="J49" s="22"/>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="62" t="s">
+      <c r="M49" s="60" t="s">
         <v>120</v>
       </c>
       <c r="N49" s="22" t="s">
@@ -3032,13 +3062,13 @@
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
-      <c r="S49" s="26" t="s">
+      <c r="S49" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T49" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3058,16 +3088,16 @@
       <c r="E50" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="58"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="56"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -3075,26 +3105,34 @@
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
-      <c r="U50" s="27"/>
+      <c r="U50" s="26"/>
     </row>
     <row r="51" spans="1:21" ht="15" thickBot="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48" t="s">
+      <c r="A51" s="47">
+        <v>3</v>
+      </c>
+      <c r="B51" s="48">
+        <v>2</v>
+      </c>
+      <c r="C51" s="46">
+        <v>1</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="51"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="58"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="56"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -3102,28 +3140,36 @@
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
-      <c r="U51" s="27"/>
+      <c r="U51" s="26"/>
     </row>
     <row r="52" spans="1:21" ht="15" thickBot="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="A52" s="18">
+        <v>1</v>
+      </c>
+      <c r="B52" s="19">
+        <v>3</v>
+      </c>
+      <c r="C52" s="19">
+        <v>1</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="E52" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="50">
         <v>11322</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="58"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="56"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -3131,7 +3177,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
-      <c r="U52" s="27"/>
+      <c r="U52" s="26"/>
     </row>
     <row r="53" spans="1:21" ht="15" thickBot="1">
       <c r="A53" s="23"/>
@@ -3143,9 +3189,9 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="58"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="56"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -3153,7 +3199,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
-      <c r="U53" s="27"/>
+      <c r="U53" s="26"/>
     </row>
     <row r="54" spans="1:21" ht="72.5">
       <c r="A54" s="4">
@@ -3171,7 +3217,7 @@
       <c r="E54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="3"/>
@@ -3185,10 +3231,10 @@
         <v>23</v>
       </c>
       <c r="K54" s="22"/>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="58"/>
+      <c r="M54" s="56"/>
       <c r="N54" s="22" t="s">
         <v>104</v>
       </c>
@@ -3198,13 +3244,13 @@
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
-      <c r="S54" s="26" t="s">
+      <c r="S54" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T54" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U54" s="27">
+      <c r="U54" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3224,7 +3270,7 @@
       <c r="E55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="73" t="s">
+      <c r="F55" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="8"/>
@@ -3232,8 +3278,8 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="58"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="56"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
@@ -3241,30 +3287,34 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
-      <c r="U55" s="27"/>
+      <c r="U55" s="26"/>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48">
-        <v>1</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="48" t="s">
+      <c r="A56" s="47">
+        <v>3</v>
+      </c>
+      <c r="B56" s="48">
+        <v>2</v>
+      </c>
+      <c r="C56" s="46">
+        <v>1</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="79"/>
+      <c r="G56" s="77"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="58"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="56"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -3272,11 +3322,15 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
-      <c r="U56" s="27"/>
+      <c r="U56" s="26"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="45"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="43">
+        <v>1</v>
+      </c>
+      <c r="B57" s="21">
+        <v>3</v>
+      </c>
       <c r="C57" s="21">
         <v>1</v>
       </c>
@@ -3286,18 +3340,18 @@
       <c r="E57" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="75" t="s">
+      <c r="F57" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="80">
+      <c r="G57" s="78">
         <v>11322</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="58"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="56"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -3305,12 +3359,16 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
-      <c r="U57" s="27"/>
+      <c r="U57" s="26"/>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="36">
+      <c r="A58" s="10">
+        <v>2</v>
+      </c>
+      <c r="B58" s="12">
+        <v>3</v>
+      </c>
+      <c r="C58" s="35">
         <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -3319,7 +3377,7 @@
       <c r="E58" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="76" t="s">
+      <c r="F58" s="74" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="14">
@@ -3329,8 +3387,8 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="58"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="56"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -3338,7 +3396,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
-      <c r="U58" s="27"/>
+      <c r="U58" s="26"/>
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1">
       <c r="A59" s="23"/>
@@ -3351,8 +3409,8 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="58"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="56"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
@@ -3360,7 +3418,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22"/>
-      <c r="U59" s="27"/>
+      <c r="U59" s="26"/>
     </row>
     <row r="60" spans="1:21" ht="58">
       <c r="A60" s="4">
@@ -3378,7 +3436,7 @@
       <c r="E60" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G60" s="3"/>
@@ -3392,10 +3450,10 @@
         <v>25</v>
       </c>
       <c r="K60" s="22"/>
-      <c r="L60" s="26" t="s">
+      <c r="L60" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="58"/>
+      <c r="M60" s="56"/>
       <c r="N60" s="22" t="s">
         <v>105</v>
       </c>
@@ -3409,13 +3467,13 @@
       <c r="R60" s="22">
         <v>2.8</v>
       </c>
-      <c r="S60" s="26" t="s">
+      <c r="S60" s="25" t="s">
         <v>106</v>
       </c>
       <c r="T60" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="U60" s="27"/>
+      <c r="U60" s="26"/>
     </row>
     <row r="61" spans="1:21" ht="43.5">
       <c r="A61" s="5">
@@ -3433,7 +3491,7 @@
       <c r="E61" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="73" t="s">
+      <c r="F61" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G61" s="8"/>
@@ -3450,44 +3508,48 @@
       <c r="L61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="60"/>
-      <c r="N61" s="26" t="s">
+      <c r="M61" s="58"/>
+      <c r="N61" s="25" t="s">
         <v>108</v>
       </c>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
-      <c r="S61" s="26" t="s">
+      <c r="S61" s="25" t="s">
         <v>109</v>
       </c>
       <c r="T61" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="U61" s="27"/>
+      <c r="U61" s="26"/>
     </row>
     <row r="62" spans="1:21" ht="15" thickBot="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48">
-        <v>1</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="48" t="s">
+      <c r="A62" s="47">
+        <v>3</v>
+      </c>
+      <c r="B62" s="48">
+        <v>2</v>
+      </c>
+      <c r="C62" s="46">
+        <v>1</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="51"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="58"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="56"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="P62" s="22"/>
@@ -3495,11 +3557,15 @@
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22"/>
-      <c r="U62" s="27"/>
+      <c r="U62" s="26"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="45"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="43">
+        <v>1</v>
+      </c>
+      <c r="B63" s="21">
+        <v>3</v>
+      </c>
       <c r="C63" s="21">
         <v>1</v>
       </c>
@@ -3509,18 +3575,18 @@
       <c r="E63" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F63" s="75" t="s">
+      <c r="F63" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="53">
+      <c r="G63" s="51">
         <v>11322</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="58"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="56"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
@@ -3528,12 +3594,16 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22"/>
-      <c r="U63" s="27"/>
+      <c r="U63" s="26"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="36">
+      <c r="A64" s="10">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="35">
         <v>6</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -3542,7 +3612,7 @@
       <c r="E64" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F64" s="76" t="s">
+      <c r="F64" s="74" t="s">
         <v>69</v>
       </c>
       <c r="G64" s="14">
@@ -3552,8 +3622,8 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="58"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="56"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
@@ -3561,7 +3631,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
-      <c r="U64" s="27"/>
+      <c r="U64" s="26"/>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="23"/>
@@ -3575,7 +3645,7 @@
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
-      <c r="M65" s="60"/>
+      <c r="M65" s="58"/>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
@@ -3583,7 +3653,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22"/>
-      <c r="U65" s="27"/>
+      <c r="U65" s="26"/>
     </row>
     <row r="66" spans="1:21" ht="43.5">
       <c r="A66" s="23"/>
@@ -3602,10 +3672,10 @@
         <v>28</v>
       </c>
       <c r="K66" s="22"/>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M66" s="61" t="s">
+      <c r="M66" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N66" s="22"/>
@@ -3615,7 +3685,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
-      <c r="U66" s="27"/>
+      <c r="U66" s="26"/>
     </row>
     <row r="67" spans="1:21" ht="43.5">
       <c r="A67" s="23"/>
@@ -3634,10 +3704,10 @@
         <v>28</v>
       </c>
       <c r="K67" s="22"/>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="61" t="s">
+      <c r="M67" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N67" s="22"/>
@@ -3647,7 +3717,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
-      <c r="U67" s="27"/>
+      <c r="U67" s="26"/>
     </row>
     <row r="68" spans="1:21" ht="43.5">
       <c r="A68" s="23"/>
@@ -3666,10 +3736,10 @@
         <v>28</v>
       </c>
       <c r="K68" s="22"/>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M68" s="61" t="s">
+      <c r="M68" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N68" s="22"/>
@@ -3679,7 +3749,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
-      <c r="U68" s="27"/>
+      <c r="U68" s="26"/>
     </row>
     <row r="69" spans="1:21" ht="44" thickBot="1">
       <c r="A69" s="23"/>
@@ -3698,10 +3768,10 @@
         <v>28</v>
       </c>
       <c r="K69" s="22"/>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="61" t="s">
+      <c r="M69" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N69" s="22"/>
@@ -3711,7 +3781,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22"/>
-      <c r="U69" s="27"/>
+      <c r="U69" s="26"/>
     </row>
     <row r="70" spans="1:21" ht="46" customHeight="1">
       <c r="A70" s="4">
@@ -3729,7 +3799,7 @@
       <c r="E70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G70" s="3"/>
@@ -3740,13 +3810,13 @@
         <v>79</v>
       </c>
       <c r="J70" s="22"/>
-      <c r="K70" s="26" t="s">
+      <c r="K70" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="L70" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M70" s="61" t="s">
+      <c r="M70" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N70" s="22" t="s">
@@ -3758,13 +3828,13 @@
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
-      <c r="S70" s="26" t="s">
+      <c r="S70" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T70" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U70" s="27">
+      <c r="U70" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3784,16 +3854,16 @@
       <c r="E71" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="58"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="56"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
@@ -3801,26 +3871,34 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
-      <c r="U71" s="27"/>
+      <c r="U71" s="26"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="F72" s="71" t="s">
         <v>90</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="58"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="56"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
@@ -3828,34 +3906,34 @@
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
-      <c r="U72" s="27"/>
+      <c r="U72" s="26"/>
     </row>
     <row r="73" spans="1:21" ht="15" thickBot="1">
-      <c r="A73" s="49">
-        <v>3</v>
-      </c>
-      <c r="B73" s="50">
+      <c r="A73" s="47">
+        <v>4</v>
+      </c>
+      <c r="B73" s="48">
         <v>2</v>
       </c>
-      <c r="C73" s="48">
-        <v>1</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="48" t="s">
+      <c r="C73" s="46">
+        <v>1</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="51"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="58"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="56"/>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
@@ -3863,23 +3941,25 @@
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
-      <c r="U73" s="27"/>
+      <c r="U73" s="26"/>
     </row>
     <row r="74" spans="1:21" ht="29.5" thickBot="1">
       <c r="A74" s="18">
         <v>1</v>
       </c>
-      <c r="B74" s="43"/>
+      <c r="B74" s="91">
+        <v>3</v>
+      </c>
       <c r="C74" s="19">
         <v>1</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="44" t="s">
+      <c r="E74" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="F74" s="66" t="s">
         <v>93</v>
       </c>
       <c r="G74" s="20">
@@ -3888,9 +3968,9 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="58"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="56"/>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="22"/>
@@ -3898,21 +3978,21 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22"/>
-      <c r="U74" s="27"/>
+      <c r="U74" s="26"/>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="23"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="26"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="58"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="56"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
@@ -3920,7 +4000,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="22"/>
       <c r="T75" s="22"/>
-      <c r="U75" s="27"/>
+      <c r="U75" s="26"/>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="23"/>
@@ -3932,9 +4012,9 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="58"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="56"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
@@ -3942,7 +4022,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
-      <c r="U76" s="27"/>
+      <c r="U76" s="26"/>
     </row>
     <row r="77" spans="1:21" ht="42.5" customHeight="1">
       <c r="A77" s="23"/>
@@ -3958,13 +4038,13 @@
         <v>80</v>
       </c>
       <c r="J77" s="22"/>
-      <c r="K77" s="26" t="s">
+      <c r="K77" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M77" s="61" t="s">
+      <c r="M77" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N77" s="22"/>
@@ -3974,7 +4054,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="22"/>
       <c r="T77" s="22"/>
-      <c r="U77" s="27"/>
+      <c r="U77" s="26"/>
     </row>
     <row r="78" spans="1:21" ht="41.5" customHeight="1">
       <c r="A78" s="23"/>
@@ -3990,13 +4070,13 @@
         <v>81</v>
       </c>
       <c r="J78" s="22"/>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M78" s="61" t="s">
+      <c r="M78" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N78" s="22"/>
@@ -4006,7 +4086,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
-      <c r="U78" s="27"/>
+      <c r="U78" s="26"/>
     </row>
     <row r="79" spans="1:21" ht="44.5" customHeight="1">
       <c r="A79" s="23"/>
@@ -4022,13 +4102,13 @@
         <v>82</v>
       </c>
       <c r="J79" s="22"/>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M79" s="61" t="s">
+      <c r="M79" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N79" s="22"/>
@@ -4038,7 +4118,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
-      <c r="U79" s="27"/>
+      <c r="U79" s="26"/>
     </row>
     <row r="80" spans="1:21" ht="37.5" customHeight="1">
       <c r="A80" s="23"/>
@@ -4054,13 +4134,13 @@
         <v>74</v>
       </c>
       <c r="J80" s="22"/>
-      <c r="K80" s="26" t="s">
+      <c r="K80" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M80" s="61" t="s">
+      <c r="M80" s="59" t="s">
         <v>121</v>
       </c>
       <c r="N80" s="22"/>
@@ -4070,7 +4150,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
-      <c r="U80" s="27"/>
+      <c r="U80" s="26"/>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="23"/>
@@ -4082,9 +4162,9 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="58"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="56"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
@@ -4092,7 +4172,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
       <c r="T81" s="22"/>
-      <c r="U81" s="27"/>
+      <c r="U81" s="26"/>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="23"/>
@@ -4104,9 +4184,9 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="58"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="56"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
@@ -4114,7 +4194,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
-      <c r="U82" s="27"/>
+      <c r="U82" s="26"/>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="23"/>
@@ -4126,9 +4206,9 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="58"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="56"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
@@ -4136,7 +4216,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
-      <c r="U83" s="27"/>
+      <c r="U83" s="26"/>
     </row>
     <row r="84" spans="1:21" ht="15" thickBot="1">
       <c r="A84" s="23"/>
@@ -4148,9 +4228,9 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="58"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="56"/>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
@@ -4158,7 +4238,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
-      <c r="U84" s="27"/>
+      <c r="U84" s="26"/>
     </row>
     <row r="85" spans="1:21" ht="72.5">
       <c r="A85" s="4">
@@ -4176,7 +4256,7 @@
       <c r="E85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G85" s="3"/>
@@ -4187,13 +4267,13 @@
         <v>73</v>
       </c>
       <c r="J85" s="22"/>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="26" t="s">
+      <c r="L85" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M85" s="58"/>
+      <c r="M85" s="56"/>
       <c r="N85" s="22" t="s">
         <v>104</v>
       </c>
@@ -4203,13 +4283,13 @@
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
-      <c r="S85" s="26" t="s">
+      <c r="S85" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T85" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U85" s="27">
+      <c r="U85" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4229,16 +4309,16 @@
       <c r="E86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="73" t="s">
+      <c r="F86" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="58"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="56"/>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
@@ -4246,26 +4326,34 @@
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
-      <c r="U86" s="27"/>
+      <c r="U86" s="26"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E87" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F87" s="71" t="s">
         <v>90</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="58"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="56"/>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
@@ -4273,34 +4361,34 @@
       <c r="R87" s="22"/>
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
-      <c r="U87" s="27"/>
+      <c r="U87" s="26"/>
     </row>
     <row r="88" spans="1:21" ht="15" thickBot="1">
-      <c r="A88" s="49">
-        <v>3</v>
-      </c>
-      <c r="B88" s="50">
+      <c r="A88" s="47">
+        <v>4</v>
+      </c>
+      <c r="B88" s="48">
         <v>2</v>
       </c>
-      <c r="C88" s="48">
-        <v>1</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="48" t="s">
+      <c r="C88" s="46">
+        <v>1</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F88" s="71" t="s">
+      <c r="F88" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G88" s="51"/>
+      <c r="G88" s="49"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="58"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="56"/>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
@@ -4308,34 +4396,36 @@
       <c r="R88" s="22"/>
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
-      <c r="U88" s="27"/>
+      <c r="U88" s="26"/>
     </row>
     <row r="89" spans="1:21" ht="29">
-      <c r="A89" s="45">
-        <v>1</v>
-      </c>
-      <c r="B89" s="24"/>
+      <c r="A89" s="43">
+        <v>1</v>
+      </c>
+      <c r="B89" s="92">
+        <v>3</v>
+      </c>
       <c r="C89" s="21">
         <v>1</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="81" t="s">
+      <c r="E89" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="47">
+      <c r="G89" s="45">
         <v>11111</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="58"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="56"/>
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
@@ -4343,23 +4433,25 @@
       <c r="R89" s="22"/>
       <c r="S89" s="22"/>
       <c r="T89" s="22"/>
-      <c r="U89" s="27"/>
+      <c r="U89" s="26"/>
     </row>
     <row r="90" spans="1:21" ht="29.5" thickBot="1">
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="94">
+        <v>3</v>
+      </c>
       <c r="C90" s="12">
         <v>2</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="68" t="s">
+      <c r="F90" s="66" t="s">
         <v>71</v>
       </c>
       <c r="G90" s="14">
@@ -4368,9 +4460,9 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="58"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="56"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -4378,7 +4470,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
-      <c r="U90" s="27"/>
+      <c r="U90" s="26"/>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="23"/>
@@ -4390,9 +4482,9 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="58"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="56"/>
       <c r="N91" s="22"/>
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
@@ -4400,7 +4492,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="22"/>
       <c r="T91" s="22"/>
-      <c r="U91" s="27"/>
+      <c r="U91" s="26"/>
     </row>
     <row r="92" spans="1:21" ht="44" thickBot="1">
       <c r="A92" s="23"/>
@@ -4419,10 +4511,10 @@
         <v>38</v>
       </c>
       <c r="K92" s="22"/>
-      <c r="L92" s="26" t="s">
+      <c r="L92" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M92" s="58"/>
+      <c r="M92" s="56"/>
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
       <c r="P92" s="22"/>
@@ -4430,7 +4522,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="22"/>
       <c r="T92" s="22"/>
-      <c r="U92" s="27"/>
+      <c r="U92" s="26"/>
     </row>
     <row r="93" spans="1:21" ht="72.5">
       <c r="A93" s="4">
@@ -4448,7 +4540,7 @@
       <c r="E93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="66" t="s">
+      <c r="F93" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G93" s="3"/>
@@ -4462,10 +4554,10 @@
         <v>40</v>
       </c>
       <c r="K93" s="22"/>
-      <c r="L93" s="26" t="s">
+      <c r="L93" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M93" s="58"/>
+      <c r="M93" s="56"/>
       <c r="N93" s="22" t="s">
         <v>104</v>
       </c>
@@ -4475,13 +4567,13 @@
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
-      <c r="S93" s="26" t="s">
+      <c r="S93" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T93" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U93" s="27">
+      <c r="U93" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4501,7 +4593,7 @@
       <c r="E94" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F94" s="73" t="s">
+      <c r="F94" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G94" s="8"/>
@@ -4509,8 +4601,8 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="58"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="56"/>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
       <c r="P94" s="22"/>
@@ -4518,17 +4610,25 @@
       <c r="R94" s="22"/>
       <c r="S94" s="22"/>
       <c r="T94" s="22"/>
-      <c r="U94" s="27"/>
+      <c r="U94" s="26"/>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="A95" s="5">
+        <v>3</v>
+      </c>
+      <c r="B95" s="6">
+        <v>2</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="73" t="s">
+      <c r="F95" s="71" t="s">
         <v>90</v>
       </c>
       <c r="G95" s="8"/>
@@ -4536,8 +4636,8 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="58"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="56"/>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
@@ -4545,34 +4645,34 @@
       <c r="R95" s="22"/>
       <c r="S95" s="22"/>
       <c r="T95" s="22"/>
-      <c r="U95" s="27"/>
+      <c r="U95" s="26"/>
     </row>
     <row r="96" spans="1:21" ht="15" thickBot="1">
-      <c r="A96" s="49">
-        <v>3</v>
-      </c>
-      <c r="B96" s="50">
+      <c r="A96" s="47">
+        <v>4</v>
+      </c>
+      <c r="B96" s="48">
         <v>2</v>
       </c>
-      <c r="C96" s="48">
-        <v>1</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="48" t="s">
+      <c r="C96" s="46">
+        <v>1</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F96" s="71" t="s">
+      <c r="F96" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G96" s="51"/>
+      <c r="G96" s="49"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="58"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="56"/>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
@@ -4580,34 +4680,36 @@
       <c r="R96" s="22"/>
       <c r="S96" s="22"/>
       <c r="T96" s="22"/>
-      <c r="U96" s="27"/>
+      <c r="U96" s="26"/>
     </row>
     <row r="97" spans="1:22" ht="29">
-      <c r="A97" s="45">
-        <v>1</v>
-      </c>
-      <c r="B97" s="24"/>
+      <c r="A97" s="43">
+        <v>1</v>
+      </c>
+      <c r="B97" s="92">
+        <v>3</v>
+      </c>
       <c r="C97" s="21">
         <v>1</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="81" t="s">
+      <c r="E97" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G97" s="47">
+      <c r="G97" s="45">
         <v>11111</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="58"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="56"/>
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
@@ -4615,23 +4717,25 @@
       <c r="R97" s="22"/>
       <c r="S97" s="22"/>
       <c r="T97" s="22"/>
-      <c r="U97" s="27"/>
+      <c r="U97" s="26"/>
     </row>
     <row r="98" spans="1:22" ht="29.5" thickBot="1">
       <c r="A98" s="10">
         <v>2</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="94">
+        <v>3</v>
+      </c>
       <c r="C98" s="12">
         <v>2</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="66" t="s">
         <v>71</v>
       </c>
       <c r="G98" s="14">
@@ -4641,8 +4745,8 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="58"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="56"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
@@ -4650,7 +4754,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
       <c r="T98" s="22"/>
-      <c r="U98" s="27"/>
+      <c r="U98" s="26"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="23"/>
@@ -4663,8 +4767,8 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="58"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="56"/>
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
@@ -4672,7 +4776,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="22"/>
       <c r="T99" s="22"/>
-      <c r="U99" s="27"/>
+      <c r="U99" s="26"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="23"/>
@@ -4685,8 +4789,8 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="58"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="56"/>
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
@@ -4694,7 +4798,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="22"/>
       <c r="T100" s="22"/>
-      <c r="U100" s="27"/>
+      <c r="U100" s="26"/>
     </row>
     <row r="101" spans="1:22" ht="43.5">
       <c r="A101" s="23"/>
@@ -4713,10 +4817,10 @@
         <v>41</v>
       </c>
       <c r="K101" s="22"/>
-      <c r="L101" s="26" t="s">
+      <c r="L101" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M101" s="58"/>
+      <c r="M101" s="56"/>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
@@ -4724,7 +4828,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="22"/>
       <c r="T101" s="22"/>
-      <c r="U101" s="27"/>
+      <c r="U101" s="26"/>
     </row>
     <row r="102" spans="1:22" ht="15" thickBot="1">
       <c r="A102" s="23"/>
@@ -4737,8 +4841,8 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="58"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="56"/>
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
@@ -4746,7 +4850,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="22"/>
       <c r="T102" s="22"/>
-      <c r="U102" s="27"/>
+      <c r="U102" s="26"/>
     </row>
     <row r="103" spans="1:22" ht="72.5">
       <c r="A103" s="4">
@@ -4764,7 +4868,7 @@
       <c r="E103" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F103" s="66" t="s">
+      <c r="F103" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G103" s="3"/>
@@ -4778,10 +4882,10 @@
         <v>43</v>
       </c>
       <c r="K103" s="22"/>
-      <c r="L103" s="26" t="s">
+      <c r="L103" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M103" s="58"/>
+      <c r="M103" s="56"/>
       <c r="N103" s="22" t="s">
         <v>104</v>
       </c>
@@ -4791,13 +4895,13 @@
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
-      <c r="S103" s="26" t="s">
+      <c r="S103" s="25" t="s">
         <v>100</v>
       </c>
       <c r="T103" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U103" s="27">
+      <c r="U103" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4817,7 +4921,7 @@
       <c r="E104" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F104" s="73" t="s">
+      <c r="F104" s="71" t="s">
         <v>86</v>
       </c>
       <c r="G104" s="8"/>
@@ -4825,8 +4929,8 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="58"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="56"/>
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
       <c r="P104" s="22"/>
@@ -4834,17 +4938,25 @@
       <c r="R104" s="22"/>
       <c r="S104" s="22"/>
       <c r="T104" s="22"/>
-      <c r="U104" s="27"/>
+      <c r="U104" s="26"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="5">
+        <v>3</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E105" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F105" s="73" t="s">
+      <c r="F105" s="71" t="s">
         <v>90</v>
       </c>
       <c r="G105" s="8"/>
@@ -4852,8 +4964,8 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="58"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="56"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
@@ -4861,34 +4973,34 @@
       <c r="R105" s="22"/>
       <c r="S105" s="22"/>
       <c r="T105" s="22"/>
-      <c r="U105" s="27"/>
+      <c r="U105" s="26"/>
     </row>
     <row r="106" spans="1:22" ht="15" thickBot="1">
-      <c r="A106" s="49">
-        <v>3</v>
-      </c>
-      <c r="B106" s="50">
+      <c r="A106" s="47">
+        <v>4</v>
+      </c>
+      <c r="B106" s="48">
         <v>2</v>
       </c>
-      <c r="C106" s="48">
-        <v>1</v>
-      </c>
-      <c r="D106" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="48" t="s">
+      <c r="C106" s="46">
+        <v>1</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="71" t="s">
+      <c r="F106" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G106" s="51"/>
+      <c r="G106" s="49"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="58"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="56"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
@@ -4896,34 +5008,36 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
       <c r="T106" s="22"/>
-      <c r="U106" s="27"/>
+      <c r="U106" s="26"/>
     </row>
     <row r="107" spans="1:22" ht="29">
-      <c r="A107" s="45">
-        <v>1</v>
-      </c>
-      <c r="B107" s="24"/>
+      <c r="A107" s="43">
+        <v>1</v>
+      </c>
+      <c r="B107" s="92">
+        <v>3</v>
+      </c>
       <c r="C107" s="21">
         <v>1</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="81" t="s">
+      <c r="E107" s="79" t="s">
         <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G107" s="47">
+      <c r="G107" s="45">
         <v>11111</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="58"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="56"/>
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
@@ -4931,23 +5045,25 @@
       <c r="R107" s="22"/>
       <c r="S107" s="22"/>
       <c r="T107" s="22"/>
-      <c r="U107" s="27"/>
+      <c r="U107" s="26"/>
     </row>
     <row r="108" spans="1:22" ht="29.5" thickBot="1">
       <c r="A108" s="10">
         <v>2</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="94">
+        <v>3</v>
+      </c>
       <c r="C108" s="12">
         <v>2</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="68" t="s">
+      <c r="F108" s="66" t="s">
         <v>71</v>
       </c>
       <c r="G108" s="14">
@@ -4957,8 +5073,8 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="58"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="56"/>
       <c r="N108" s="22"/>
       <c r="O108" s="22"/>
       <c r="P108" s="22"/>
@@ -4966,52 +5082,52 @@
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
       <c r="T108" s="22"/>
-      <c r="U108" s="27"/>
+      <c r="U108" s="26"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="23"/>
-      <c r="B109" s="25"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
-      <c r="E109" s="26"/>
+      <c r="E109" s="25"/>
       <c r="F109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="58"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="56"/>
       <c r="N109" s="22"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="25"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
       <c r="S109" s="22"/>
       <c r="T109" s="22"/>
-      <c r="U109" s="39"/>
+      <c r="U109" s="38"/>
       <c r="V109" s="22"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="23"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="26"/>
+      <c r="E110" s="25"/>
       <c r="F110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="58"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="56"/>
       <c r="N110" s="22"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="25"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
       <c r="S110" s="22"/>
       <c r="T110" s="22"/>
-      <c r="U110" s="39"/>
+      <c r="U110" s="38"/>
       <c r="V110" s="22"/>
     </row>
     <row r="111" spans="1:22" ht="87.5" thickBot="1">
@@ -5030,10 +5146,10 @@
         <v>44</v>
       </c>
       <c r="K111" s="17"/>
-      <c r="L111" s="54" t="s">
+      <c r="L111" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M111" s="63"/>
+      <c r="M111" s="61"/>
       <c r="N111" s="17"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
@@ -5041,7 +5157,7 @@
       <c r="R111" s="17"/>
       <c r="S111" s="17"/>
       <c r="T111" s="17"/>
-      <c r="U111" s="38"/>
+      <c r="U111" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
